--- a/examples/financial_transactions/template.xlsx
+++ b/examples/financial_transactions/template.xlsx
@@ -94,10 +94,10 @@
     <t>'!!Transaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-12 10:18:43'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-03-12 10:18:43' objTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.9' date='2020-04-27 01:05:05'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:05:05' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -121,7 +121,7 @@
     <t>Stores transactions</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-03-12 10:18:43' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-04-27 01:05:06' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -172,7 +172,7 @@
     <t>payee</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' id='Transaction' name='Transaction' description='Stores transactions' date='2020-03-12 10:18:43' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-04-27 01:05:06' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Amount</t>

--- a/examples/financial_transactions/template.xlsx
+++ b/examples/financial_transactions/template.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -94,10 +94,10 @@
     <t>'!!Transaction'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.9' date='2020-04-27 01:05:05'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-04-27 01:05:05' objTablesVersion='0.0.9'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-05-29 00:18:57'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-29 00:18:57' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -121,7 +121,7 @@
     <t>Stores transactions</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-04-27 01:05:06' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-29 00:18:57' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -157,12 +157,18 @@
     <t>PositiveFloat</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
     <t>category</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -172,7 +178,10 @@
     <t>payee</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-04-27 01:05:06' objTablesVersion='0.0.9'</t>
+    <t>Payee</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-05-29 00:18:57' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Amount</t>
@@ -710,13 +719,15 @@
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -725,15 +736,17 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>21</v>
@@ -742,15 +755,17 @@
         <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>21</v>
@@ -759,9 +774,11 @@
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -792,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -800,16 +817,16 @@
     </row>
     <row r="2" spans="1:4" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.01" customHeight="1">
